--- a/distributions/distribution_f8_3z.xlsx
+++ b/distributions/distribution_f8_3z.xlsx
@@ -1,48 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Distribution</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -373,169 +420,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>0.04615384615384616</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>0.1668016194331984</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>0.3295546558704453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>0.4971659919028339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>0.6461538461538461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>0.7400809716599189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>0.803238866396761</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>0.8534412955465586</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>0.8809716599190281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>0.9133603238866395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>0.940890688259109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>0.9611336032388661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>0.9700404858299592</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <v>0.9797570850202426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <v>0.9854251012145746</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>0.9894736842105261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>0.9943319838056678</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>0.9951417004048581</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>0.9959514170040483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>0.9959514170040483</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>0.9959514170040483</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>0.9983805668016191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <v>0.9983805668016191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <v>0.9983805668016191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <v>0.9983805668016191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <v>0.9991902834008094</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <v>0.9991902834008094</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <v>0.9991902834008094</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <v>0.9991902834008094</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
-        <v>0.9999999999999997</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.1951417004048583</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.3595141700404858</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.5052631578947369</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.6550607287449393</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.7441295546558704</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.8048582995951417</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.8477732793522267</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.8809716599190283</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.9101214574898785</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.9368421052631578</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.9570850202429149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.9700404858299594</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.9797570850202428</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.9878542510121456</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.9894736842105262</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.9927125506072874</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.9967611336032388</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.9975708502024291</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.9983805668016194</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.9983805668016194</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.9983805668016194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.9983805668016194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.9983805668016194</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.9983805668016194</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.9983805668016194</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.9991902834008096</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.9991902834008096</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.9991902834008096</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/distributions/distribution_f8_3z.xlsx
+++ b/distributions/distribution_f8_3z.xlsx
@@ -442,77 +442,77 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.09716599190283401</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1951417004048583</v>
+        <v>0.2874493927125506</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3595141700404858</v>
+        <v>0.4874493927125506</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5052631578947369</v>
+        <v>0.6477732793522267</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.6550607287449393</v>
+        <v>0.7870445344129555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.7441295546558704</v>
+        <v>0.8445344129554656</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8048582995951417</v>
+        <v>0.8777327935222672</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8477732793522267</v>
+        <v>0.908502024291498</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8809716599190283</v>
+        <v>0.940080971659919</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9101214574898785</v>
+        <v>0.9538461538461538</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9368421052631578</v>
+        <v>0.9643724696356275</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9570850202429149</v>
+        <v>0.9724696356275303</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9700404858299594</v>
+        <v>0.9813765182186234</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9797570850202428</v>
+        <v>0.9838056680161942</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9878542510121456</v>
+        <v>0.9870445344129554</v>
       </c>
     </row>
     <row r="17">
@@ -522,72 +522,72 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9927125506072874</v>
+        <v>0.9902834008097164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9967611336032388</v>
+        <v>0.9927125506072872</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9975708502024291</v>
+        <v>0.9935222672064775</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9983805668016194</v>
+        <v>0.9943319838056678</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9983805668016194</v>
+        <v>0.9943319838056678</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9983805668016194</v>
+        <v>0.9943319838056678</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9983805668016194</v>
+        <v>0.9959514170040483</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9983805668016194</v>
+        <v>0.9967611336032386</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9983805668016194</v>
+        <v>0.9967611336032386</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9983805668016194</v>
+        <v>0.9975708502024289</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9991902834008096</v>
+        <v>0.9983805668016191</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9991902834008096</v>
+        <v>0.9983805668016191</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9991902834008096</v>
+        <v>0.9983805668016191</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
   </sheetData>
